--- a/data/items.xlsx
+++ b/data/items.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed\Desktop\inventory-feedback-app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\inventory-feedback-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800794B2-3A22-46DA-8E68-B1A08C4B9BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC1764A-4120-4363-8CD5-AAF2A0775183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Item Code</t>
   </si>
@@ -77,91 +77,10 @@
     <t>S000002466</t>
   </si>
   <si>
-    <t>S000003966</t>
-  </si>
-  <si>
-    <t>S000005465</t>
-  </si>
-  <si>
-    <t>S0302700001</t>
-  </si>
-  <si>
-    <t>S0900200048</t>
-  </si>
-  <si>
-    <t>S1006600823</t>
-  </si>
-  <si>
-    <t>S1200400094</t>
-  </si>
-  <si>
-    <t>S1400101221</t>
-  </si>
-  <si>
-    <t>S1400101389</t>
-  </si>
-  <si>
-    <t>S1400101425</t>
-  </si>
-  <si>
     <t>motor single module book size 3120</t>
   </si>
   <si>
     <t>RB02.02.02</t>
-  </si>
-  <si>
-    <t>shaft sleave ref 2450  191182039</t>
-  </si>
-  <si>
-    <t>DB16.05.01</t>
-  </si>
-  <si>
-    <t>load unload solenoid 220 vac</t>
-  </si>
-  <si>
-    <t>RC03.04.02</t>
-  </si>
-  <si>
-    <t>Lantern ring</t>
-  </si>
-  <si>
-    <t>DB16.06.04</t>
-  </si>
-  <si>
-    <t>IGBT Transistor Module BSM100GB120DN2, 100 A, 1200 V  6SY7000-0AC85</t>
-  </si>
-  <si>
-    <t>RC02.04.09</t>
-  </si>
-  <si>
-    <t>VBLE.754154.145-02 GASKET</t>
-  </si>
-  <si>
-    <t>BA38.01.01</t>
-  </si>
-  <si>
-    <t>Brush Standard, Small, ARL No. 913922</t>
-  </si>
-  <si>
-    <t>RC01.02.10</t>
-  </si>
-  <si>
-    <t>HYDRAULIC OIL FILTER</t>
-  </si>
-  <si>
-    <t>DA14.05.02</t>
-  </si>
-  <si>
-    <t>DUST SCRAPER JW525-145</t>
-  </si>
-  <si>
-    <t>BB27.07.02</t>
-  </si>
-  <si>
-    <t>LEVEL SENSOR</t>
-  </si>
-  <si>
-    <t>RD01.02.11</t>
   </si>
 </sst>
 </file>
@@ -533,7 +452,7 @@
   <dimension ref="A1:M4001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,10 +517,10 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -615,15 +534,9 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -636,15 +549,9 @@
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -657,15 +564,9 @@
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -678,15 +579,9 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -699,15 +594,9 @@
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -720,15 +609,9 @@
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -741,15 +624,9 @@
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -762,15 +639,9 @@
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -783,15 +654,9 @@
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
